--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H2">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I2">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J2">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>2214.151734308777</v>
+        <v>14734.28452296197</v>
       </c>
       <c r="R2">
-        <v>2214.151734308777</v>
+        <v>132608.5607066577</v>
       </c>
       <c r="S2">
-        <v>0.05384388936667096</v>
+        <v>0.1747882531482239</v>
       </c>
       <c r="T2">
-        <v>0.05384388936667096</v>
+        <v>0.1747882531482239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H3">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I3">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J3">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>2227.975578640021</v>
+        <v>13922.49902972231</v>
       </c>
       <c r="R3">
-        <v>2227.975578640021</v>
+        <v>125302.4912675008</v>
       </c>
       <c r="S3">
-        <v>0.05418005853396878</v>
+        <v>0.165158293303665</v>
       </c>
       <c r="T3">
-        <v>0.05418005853396878</v>
+        <v>0.165158293303665</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H4">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I4">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J4">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>2599.158511972124</v>
+        <v>16329.09909355894</v>
       </c>
       <c r="R4">
-        <v>2599.158511972124</v>
+        <v>146961.8918420305</v>
       </c>
       <c r="S4">
-        <v>0.06320650983242482</v>
+        <v>0.1937070443834255</v>
       </c>
       <c r="T4">
-        <v>0.06320650983242482</v>
+        <v>0.1937070443834255</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H5">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I5">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J5">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>6952.830238671561</v>
+        <v>7470.37279233072</v>
       </c>
       <c r="R5">
-        <v>6952.830238671561</v>
+        <v>67233.35513097647</v>
       </c>
       <c r="S5">
-        <v>0.1690793888943422</v>
+        <v>0.08861871838450289</v>
       </c>
       <c r="T5">
-        <v>0.1690793888943422</v>
+        <v>0.08861871838450289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H6">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I6">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J6">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>6996.239568480192</v>
+        <v>7058.792559001059</v>
       </c>
       <c r="R6">
-        <v>6996.239568480192</v>
+        <v>63529.13303100954</v>
       </c>
       <c r="S6">
-        <v>0.1701350198682632</v>
+        <v>0.08373626956916209</v>
       </c>
       <c r="T6">
-        <v>0.1701350198682632</v>
+        <v>0.08373626956916211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H7">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I7">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J7">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>8161.819995042933</v>
+        <v>8278.953579435354</v>
       </c>
       <c r="R7">
-        <v>8161.819995042933</v>
+        <v>74510.58221491818</v>
       </c>
       <c r="S7">
-        <v>0.1984796823244674</v>
+        <v>0.09821066179288385</v>
       </c>
       <c r="T7">
-        <v>0.1984796823244674</v>
+        <v>0.09821066179288386</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.6706229185958</v>
+        <v>48.043585</v>
       </c>
       <c r="H8">
-        <v>35.6706229185958</v>
+        <v>144.130755</v>
       </c>
       <c r="I8">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="J8">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>3763.846827118261</v>
+        <v>5405.54671219032</v>
       </c>
       <c r="R8">
-        <v>3763.846827118261</v>
+        <v>48649.92040971287</v>
       </c>
       <c r="S8">
-        <v>0.09152947786377361</v>
+        <v>0.06412432620412958</v>
       </c>
       <c r="T8">
-        <v>0.09152947786377361</v>
+        <v>0.06412432620412957</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.6706229185958</v>
+        <v>48.043585</v>
       </c>
       <c r="H9">
-        <v>35.6706229185958</v>
+        <v>144.130755</v>
       </c>
       <c r="I9">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="J9">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>3787.346044366338</v>
+        <v>5107.72808400061</v>
       </c>
       <c r="R9">
-        <v>3787.346044366338</v>
+        <v>45969.55275600549</v>
       </c>
       <c r="S9">
-        <v>0.09210093339417059</v>
+        <v>0.06059139607133916</v>
       </c>
       <c r="T9">
-        <v>0.09210093339417059</v>
+        <v>0.06059139607133916</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.6706229185958</v>
+        <v>48.043585</v>
       </c>
       <c r="H10">
-        <v>35.6706229185958</v>
+        <v>144.130755</v>
       </c>
       <c r="I10">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="J10">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>4418.321638429962</v>
+        <v>5990.634141797704</v>
       </c>
       <c r="R10">
-        <v>4418.321638429962</v>
+        <v>53915.70727617933</v>
       </c>
       <c r="S10">
-        <v>0.1074450399219183</v>
+        <v>0.07106503714266796</v>
       </c>
       <c r="T10">
-        <v>0.1074450399219183</v>
+        <v>0.07106503714266797</v>
       </c>
     </row>
   </sheetData>
